--- a/Pedidos/DataExcel/ReporteMovimientoDeInventario.xlsx
+++ b/Pedidos/DataExcel/ReporteMovimientoDeInventario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>Concepto</t>
   </si>
@@ -25,139 +25,139 @@
     <t>IdProducto</t>
   </si>
   <si>
+    <t>CodProducto</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
     <t>IdGrupo</t>
   </si>
   <si>
-    <t>CodProducto</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Existencia</t>
   </si>
   <si>
-    <t>IdAlmacen1</t>
-  </si>
-  <si>
-    <t>CantidadActual1</t>
-  </si>
-  <si>
-    <t>IdAlmacen2</t>
-  </si>
-  <si>
-    <t>CantidadActual2</t>
-  </si>
-  <si>
-    <t>CantidadAnadida</t>
+    <t>IdAlmacenes</t>
+  </si>
+  <si>
+    <t>CantidadActual</t>
   </si>
   <si>
     <t>EntradaDeMercancias</t>
   </si>
   <si>
+    <t>TransferenciaDeMercancias</t>
+  </si>
+  <si>
     <t>SalidaDeMercancias</t>
   </si>
   <si>
-    <t>TransferenciaDeMercancias</t>
-  </si>
-  <si>
-    <t>Compra de Productos</t>
-  </si>
-  <si>
-    <t>Devolución de Producto</t>
-  </si>
-  <si>
-    <t>Entrada por Fabricación</t>
-  </si>
-  <si>
-    <t>Carga Inicial</t>
+    <t>InitialLoading</t>
+  </si>
+  <si>
+    <t>DevolucionProducto</t>
+  </si>
+  <si>
+    <t>EntradaPorFabricacion</t>
+  </si>
+  <si>
+    <t>VerificaciónCalidad</t>
+  </si>
+  <si>
+    <t>DannoProducto</t>
   </si>
   <si>
     <t>DispatchOutput</t>
   </si>
   <si>
-    <t>Venta de Productos</t>
-  </si>
-  <si>
-    <t>Daño de Productos</t>
-  </si>
-  <si>
-    <t>Para fabricación</t>
-  </si>
-  <si>
-    <t>Verificación por Calidad</t>
-  </si>
-  <si>
-    <t>Para Despacho</t>
+    <t>DevolucionProductoCompra</t>
+  </si>
+  <si>
+    <t>Fabricacion</t>
+  </si>
+  <si>
+    <t>CompraProductos</t>
+  </si>
+  <si>
+    <t>VentaProducto</t>
+  </si>
+  <si>
+    <t>ParaDespacho</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
+    <t>9511-101-140</t>
+  </si>
+  <si>
+    <t>9511-202-111</t>
+  </si>
+  <si>
+    <t>9440-303-304</t>
+  </si>
+  <si>
+    <t>9440-404-382</t>
+  </si>
+  <si>
+    <t>9440-404-384</t>
   </si>
   <si>
     <t>2590-114-102</t>
   </si>
   <si>
-    <t>9440-404-385</t>
-  </si>
-  <si>
-    <t>2663-909-114</t>
+    <t>1200-660-055</t>
+  </si>
+  <si>
+    <t>1500-440-055</t>
+  </si>
+  <si>
+    <t>PV-002</t>
   </si>
   <si>
     <t>2663-101-455</t>
   </si>
   <si>
-    <t>1200-660-055</t>
-  </si>
-  <si>
-    <t>7781-202-001</t>
-  </si>
-  <si>
-    <t>9440-303-304</t>
-  </si>
-  <si>
-    <t>9440-404-384</t>
-  </si>
-  <si>
-    <t>1500-440-055</t>
-  </si>
-  <si>
-    <t>PV-002</t>
-  </si>
-  <si>
-    <t>9511-101-140</t>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
+    <t>Envase 1/4 Gal - TRENTON5</t>
+  </si>
+  <si>
+    <t>Envase 1 Galon - TRENTON5</t>
+  </si>
+  <si>
+    <t>Cap Seal 3/4' TRENTON5</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Negro</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Plateado</t>
   </si>
   <si>
     <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
   </si>
   <si>
-    <t>Tapa con Foil 38x400 Rojo</t>
-  </si>
-  <si>
-    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+    <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
+  </si>
+  <si>
+    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
+  </si>
+  <si>
+    <t>Paleta 4 tambores 55 gal trenton</t>
   </si>
   <si>
     <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
   </si>
   <si>
-    <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
-  </si>
-  <si>
-    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
-  </si>
-  <si>
-    <t>Cap Seal 3/4' TRENTON5</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Plateado</t>
-  </si>
-  <si>
-    <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
-  </si>
-  <si>
-    <t>Paleta 4 tambores 55 gal trenton</t>
-  </si>
-  <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>MP: Liquidos</t>
+  </si>
+  <si>
+    <t>Materia Prima</t>
+  </si>
+  <si>
+    <t>Producto Terminado</t>
   </si>
 </sst>
 </file>
@@ -515,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,432 +549,614 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>60000</v>
+        <v>6450525</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
+        <v>4406609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>6450525</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>2043916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>1387</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>1387</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>50006</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>50006</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>55000</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>55000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>582</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>692</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>-108</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>542</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>98</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>823303</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8">
+        <v>102761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>42</v>
       </c>
-      <c r="G8">
-        <v>199800</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>198999</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>55000</v>
+        <v>823303</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>55000</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>96238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>563</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>38043</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>43326</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>43326</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>59999</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>59999</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>542</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="K10">
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="L10">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>542</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>563</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>563</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>572</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>572</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>94</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>582</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>572</v>
-      </c>
-      <c r="D11">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>691</v>
+      </c>
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>94</v>
-      </c>
-      <c r="H11">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>582</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>691</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>19</v>
+      <c r="I22">
+        <v>-109</v>
       </c>
     </row>
   </sheetData>
